--- a/BalanceSheet/PLUG_bal.xlsx
+++ b/BalanceSheet/PLUG_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-5671000.0</v>
+        <v>139000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-19735000.0</v>
+        <v>134000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-17402000.0</v>
+        <v>115000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-20581000.0</v>
+        <v>93000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>8210000.0</v>
+        <v>72000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>80601000.0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3148000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>31049000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>7632000.0</v>
+        <v>40000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-2933000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>6586000.0</v>
+        <v>40000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>36851000.0</v>
